--- a/Way2Automation/src/test/java/testdata/BankManagerSuite.xlsx
+++ b/Way2Automation/src/test/java/testdata/BankManagerSuite.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sami/IdeaProjects/DataDrivenGrid/src/test/resources/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sami/IdeaProjects/SeleniumBootCamp/Way2Automation/src/test/java/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -112,10 +112,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -138,13 +154,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -464,11 +484,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -606,5 +630,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Way2Automation/src/test/java/testdata/BankManagerSuite.xlsx
+++ b/Way2Automation/src/test/java/testdata/BankManagerSuite.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7760" activeTab="1"/>
+    <workbookView xWindow="1260" yWindow="780" windowWidth="20500" windowHeight="7760"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -445,11 +445,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -484,7 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/Way2Automation/src/test/java/testdata/BankManagerSuite.xlsx
+++ b/Way2Automation/src/test/java/testdata/BankManagerSuite.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="780" windowWidth="20500" windowHeight="7760"/>
+    <workbookView xWindow="1260" yWindow="780" windowWidth="20500" windowHeight="7760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
     <sheet name="TestData" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>TestCases</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Pound</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -445,7 +448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -476,7 +479,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -488,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
